--- a/app/static/config.xlsx
+++ b/app/static/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minidemo\app\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minigame_demo\minidemo\app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA84740-BC08-4DD4-9C91-9652EE864238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF007D-F46D-416C-A42D-B080BE6CADEE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2250" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前哨战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气象站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +469,194 @@
   </si>
   <si>
     <t>pharos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让工作场所也发出驱散浓雾的光亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出勘察的船只也能装备的光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升灯塔的亮度1个等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升灯塔的发光范围1个等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型光源范围升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升小型光源的发光范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携式激光器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率激光器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂提高激光器功率2个等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高侦察队的亮度1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率激光器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高灯塔亮度2个等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射镜片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射镜片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升灯塔发光范围2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜片打磨1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低侦察队的能量消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型光源光路优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低小型光源的能量消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯度镜片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少灯塔发光过程的能源衰减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯度镜片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携功率放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高侦察队的亮度2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率激光器3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升灯塔亮度3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光器过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光器冷却系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长激光器过载的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射镜片阵列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升灯塔发光范围3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光敏指南针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以派出勘察船只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以派出的勘察队+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前哨站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦察队可以离开海岸线前往深海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涡轮柴油机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快勘察队的移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行光学工业化研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量实体化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +985,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921E236D-E6F8-4A16-B969-6042505E3BFD}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1696,7 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>
@@ -1520,7 +1704,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -1528,7 +1712,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -1536,7 +1720,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>97</v>
@@ -1544,26 +1728,26 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1575,18 +1759,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA70AEC-2C8C-48C8-8AB3-497F92EB7B9C}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31:AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1598,22 +1782,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1624,7 +1808,10 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1635,7 +1822,10 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1646,7 +1836,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1657,7 +1850,10 @@
         <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1668,17 +1864,455 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>110</v>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>501</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>503</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>211</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +2327,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1757,7 +2391,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
